--- a/Tests/Validation/Canola/Harden1999.xlsx
+++ b/Tests/Validation/Canola/Harden1999.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lil026\ApsimX\Prototypes\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\01-Projects\ApsimX\Tests\Validation\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9C78F-58F2-4057-9D5C-342C87D52CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E0EF3-DDDB-4443-B796-AE6D8E45E146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCD4BBDB-2039-4016-B509-C04A516B8513}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{DCD4BBDB-2039-4016-B509-C04A516B8513}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$B$1:$P$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$B$1:$Q$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Canola.Density</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Canola.DaysAfterSowing</t>
+  </si>
+  <si>
+    <t>Canola.FrostHeatGrainWt</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -201,26 +204,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,40 +526,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C11D26-4E0C-495C-A0BC-9CE09D11AC25}">
-  <dimension ref="A1:AH83"/>
+  <dimension ref="A1:AI83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -597,64 +588,67 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -664,10 +658,10 @@
       <c r="C2" s="1">
         <v>36298</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="14">
         <v>36361</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="5">
         <f>D2-C2</f>
         <v>63</v>
       </c>
@@ -679,57 +673,58 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="6">
+      <c r="J2" s="5"/>
+      <c r="K2" s="6">
         <v>16.473444444444443</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>0.32583333333333336</v>
       </c>
-      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6">
         <v>0.25297144457579934</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="6">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6">
         <v>6.31</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>4.6900000000000004</v>
       </c>
-      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="5">
+      <c r="T2" s="6"/>
+      <c r="U2" s="5">
         <v>1.0347491793654873</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="5">
+      <c r="W2" s="5">
         <v>2.8590512894525264</v>
       </c>
-      <c r="W2" s="5">
+      <c r="X2" s="5">
         <v>0.32583333333333336</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="5">
         <v>2.0171388743127548E-2</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AB2" s="2">
         <v>66.111111111111114</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AC2" s="5">
         <v>10.710365734015737</v>
       </c>
-      <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -739,11 +734,11 @@
       <c r="C3" s="1">
         <v>36298</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="14">
         <v>36398</v>
       </c>
-      <c r="E3" s="21">
-        <f t="shared" ref="E3:E66" si="0">D3-C3</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E9" si="0">D3-C3</f>
         <v>100</v>
       </c>
       <c r="F3" t="s">
@@ -754,57 +749,58 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="6">
+      <c r="J3" s="5"/>
+      <c r="K3" s="6">
         <v>106.40541666666667</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>26.556425000000001</v>
       </c>
-      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>1.7329083333333333</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="6">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6">
         <v>5.18</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>3.7</v>
       </c>
-      <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="5">
+      <c r="T3" s="6"/>
+      <c r="U3" s="5">
         <v>13.790582493136412</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>12.173223788127512</v>
       </c>
-      <c r="W3" s="5">
+      <c r="X3" s="5">
         <v>2.25798366261251</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="5">
         <v>0.12728861662103286</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AB3" s="2">
         <v>65.555555555555543</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AC3" s="5">
         <v>4.2065987746669755</v>
       </c>
-      <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -814,10 +810,10 @@
       <c r="C4" s="1">
         <v>36298</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <v>36412</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -828,59 +824,60 @@
         <v>312.10437349095298</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>115.28736479661703</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>196.81700869433598</v>
       </c>
-      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
         <v>2.3277906508551722</v>
       </c>
-      <c r="O4" s="23">
+      <c r="P4" s="5">
         <v>6</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>4.78</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="5">
+      <c r="T4" s="6"/>
+      <c r="U4" s="5">
         <v>17.117289363052784</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>7.7503442967023846</v>
       </c>
-      <c r="W4" s="5">
+      <c r="X4" s="5">
         <v>15.555775830192646</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="5">
         <v>0.14698176249146122</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>55.924866424914399</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AC4" s="5">
         <v>4.071385408516794</v>
       </c>
-      <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -890,10 +887,10 @@
       <c r="C5" s="1">
         <v>36298</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <v>36431</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
@@ -904,63 +901,64 @@
         <v>528.13560865072691</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>113.81610529600158</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>377.49245952308462</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>5.951995402372015</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>30.875048429268638</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>2.4512821035887336</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="6">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6">
         <v>5.0199999999999996</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>1.66</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>4.38</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="5">
+      <c r="T5" s="6"/>
+      <c r="U5" s="5">
         <v>12.069413359736997</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>4.8128184066313233</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>8.4253547587714372</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <v>2.7094417261164305</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <v>6.2118672647360702</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <v>0.10318560291315657</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <v>34.420873301253479</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <v>2.0380063809433366</v>
       </c>
-      <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI5" s="2"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -970,10 +968,10 @@
       <c r="C6" s="1">
         <v>36298</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <v>36445</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
@@ -984,63 +982,64 @@
         <v>594.14682515858192</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
         <v>64.095866298337313</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>360.39293771886696</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>0.64977046671767402</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>169.00825067466005</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>1.1765161313553172</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="6">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6">
         <v>4.33</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>1.22</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>3</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="5">
+      <c r="T6" s="6"/>
+      <c r="U6" s="5">
         <v>33.347144673772313</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <v>7.9994730161642149</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <v>17.967628236521367</v>
       </c>
-      <c r="X6" s="5">
+      <c r="Y6" s="5">
         <v>0.64977046671767402</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Z6" s="5">
         <v>18.462333093425027</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AA6" s="5">
         <v>0.15765724923159935</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>39.55343666887903</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <v>4.6159890931807581</v>
       </c>
-      <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI6" s="2"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1050,10 +1049,10 @@
       <c r="C7" s="1">
         <v>36298</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="14">
         <v>36459</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
@@ -1064,63 +1063,64 @@
         <v>772.63525342226285</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>54.639002028516408</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>361.13501836514911</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>7.9066664450174242</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>348.95456658357989</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>1.2712457916798832</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="6">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6">
         <v>4.29</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>1.48</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="5">
+      <c r="T7" s="6"/>
+      <c r="U7" s="5">
         <v>32.439224908630734</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>9.2905451716147791</v>
       </c>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <v>16.382051367649577</v>
       </c>
-      <c r="X7" s="5">
+      <c r="Y7" s="5">
         <v>1.8812433563192446</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Z7" s="5">
         <v>6.6274246585323935</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AA7" s="5">
         <v>0.23446320663992304</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42.244973345268164</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <v>1.2311404609901666</v>
       </c>
-      <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1130,10 +1130,10 @@
       <c r="C8" s="1">
         <v>36298</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="14">
         <v>36473</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
@@ -1144,59 +1144,60 @@
         <v>876.76776645803545</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>43.646513275186216</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>352.29056778011926</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>0.66897339271439982</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>480.16171201001561</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>0.83799005345431432</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="6">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6">
         <v>2.5</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="5">
+      <c r="T8" s="6"/>
+      <c r="U8" s="5">
         <v>58.450658662934259</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <v>6.3633002477762899</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <v>24.702783026975268</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y8" s="5">
         <v>0.66897339271439982</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Z8" s="5">
         <v>34.983955090112843</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AA8" s="5">
         <v>0.10974212532021434</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>48.127446330481739</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="5">
         <v>3.3699721297261176</v>
       </c>
-      <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1206,10 +1207,10 @@
       <c r="C9" s="1">
         <v>36298</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <v>36487</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
@@ -1226,1174 +1227,1239 @@
       <c r="I9" s="6">
         <v>433.62777777777774</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
+      <c r="J9" s="6">
+        <v>433.62777777777774</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>392.4638888888889</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
         <v>284.99444444444447</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="23">
+      <c r="O9" s="6"/>
+      <c r="P9" s="5">
         <v>9</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
         <v>0.92</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
         <v>3.8</v>
       </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5">
         <v>86.181969696219952</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>39.054950603818128</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <v>26.57994710233568</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Z9" s="5">
         <v>22.097279081333756</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AA9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <v>61.111111111111107</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="5">
         <v>11.715067151062749</v>
       </c>
-      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="21"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="21"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="3:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="5"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
+      <c r="O18" s="2"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
+      <c r="O19" s="2"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
+      <c r="O20" s="2"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="4"/>
+      <c r="O21" s="2"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="4"/>
+      <c r="O23" s="2"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="5"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="4"/>
+      <c r="O24" s="2"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="5"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="4"/>
+      <c r="O25" s="2"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="5"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
+      <c r="O26" s="2"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="5"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="4"/>
+      <c r="O27" s="2"/>
+      <c r="Q27" s="3"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="5"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
+      <c r="O28" s="2"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
+      <c r="O29" s="2"/>
+      <c r="Q29" s="3"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="5"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="3"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="5"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="4"/>
+      <c r="O31" s="2"/>
+      <c r="Q31" s="3"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="5"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
+      <c r="O32" s="2"/>
+      <c r="Q32" s="3"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="4"/>
+      <c r="O33" s="2"/>
+      <c r="Q33" s="3"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="5"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="4"/>
+      <c r="O34" s="2"/>
+      <c r="Q34" s="3"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="4"/>
+      <c r="O35" s="2"/>
+      <c r="Q35" s="3"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="4"/>
+      <c r="O36" s="2"/>
+      <c r="Q36" s="3"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="5"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="4"/>
+      <c r="O37" s="2"/>
+      <c r="Q37" s="3"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="5"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="4"/>
+      <c r="O38" s="2"/>
+      <c r="Q38" s="3"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="5"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="4"/>
+      <c r="O39" s="2"/>
+      <c r="Q39" s="3"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="5"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="4"/>
+      <c r="O40" s="2"/>
+      <c r="Q40" s="3"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="5"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="4"/>
+      <c r="O41" s="2"/>
+      <c r="Q41" s="3"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="5"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="4"/>
+      <c r="O42" s="2"/>
+      <c r="Q42" s="3"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="5"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="4"/>
+      <c r="O43" s="2"/>
+      <c r="Q43" s="3"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="5"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="4"/>
+      <c r="O44" s="2"/>
+      <c r="Q44" s="3"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="5"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="4"/>
+      <c r="O45" s="2"/>
+      <c r="Q45" s="3"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="4"/>
+      <c r="O46" s="2"/>
+      <c r="Q46" s="3"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="5"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="2"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="4"/>
+      <c r="O47" s="2"/>
+      <c r="Q47" s="3"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="5"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="4"/>
+      <c r="O48" s="2"/>
+      <c r="Q48" s="3"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="5"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="4"/>
+      <c r="O49" s="2"/>
+      <c r="Q49" s="3"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="5"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="4"/>
+      <c r="O50" s="2"/>
+      <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="5"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="4"/>
+      <c r="O51" s="2"/>
+      <c r="Q51" s="3"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="5"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="4"/>
+      <c r="O52" s="2"/>
+      <c r="Q52" s="3"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="5"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="4"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="4"/>
+      <c r="O53" s="2"/>
+      <c r="Q53" s="3"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="5"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="4"/>
+      <c r="O54" s="2"/>
+      <c r="Q54" s="3"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="5"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="2"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="4"/>
+      <c r="O55" s="2"/>
+      <c r="Q55" s="3"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="4"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="5"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="2"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="4"/>
+      <c r="O56" s="2"/>
+      <c r="Q56" s="3"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="5"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="2"/>
+      <c r="L57" s="4"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="4"/>
+      <c r="O57" s="2"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="5"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="2"/>
+      <c r="L58" s="4"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="4"/>
+      <c r="O58" s="2"/>
+      <c r="Q58" s="3"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="4"/>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="5"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="4"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="2"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="4"/>
+      <c r="O59" s="2"/>
+      <c r="Q59" s="3"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="4"/>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="5"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="4"/>
+      <c r="J60" s="3"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="4"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="4"/>
+      <c r="O60" s="2"/>
+      <c r="Q60" s="3"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="4"/>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="5"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="3"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="2"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="4"/>
+      <c r="O61" s="2"/>
+      <c r="Q61" s="3"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="4"/>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="5"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="2"/>
+      <c r="L62" s="4"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="4"/>
+      <c r="O62" s="2"/>
+      <c r="Q62" s="3"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="4"/>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="5"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="2"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="4"/>
+      <c r="O63" s="2"/>
+      <c r="Q63" s="3"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="5"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
+      <c r="J64" s="3"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="4"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="4"/>
+      <c r="O64" s="2"/>
+      <c r="Q64" s="3"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="4"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="5"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
+      <c r="J65" s="3"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="4"/>
+      <c r="O65" s="2"/>
+      <c r="Q65" s="3"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="21"/>
+      <c r="E66" s="5"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="2"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="4"/>
+      <c r="O66" s="2"/>
+      <c r="Q66" s="3"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="4"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="21"/>
+      <c r="E67" s="5"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="4"/>
+      <c r="J67" s="3"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="2"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="4"/>
+      <c r="O67" s="2"/>
+      <c r="Q67" s="3"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="4"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="5"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="4"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="4"/>
+      <c r="O68" s="2"/>
+      <c r="Q68" s="3"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="4"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="21"/>
+      <c r="E69" s="5"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="3"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="2"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="4"/>
+      <c r="O69" s="2"/>
+      <c r="Q69" s="3"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="21"/>
+      <c r="E70" s="5"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="4"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="2"/>
+      <c r="L70" s="4"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="4"/>
+      <c r="O70" s="2"/>
+      <c r="Q70" s="3"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="4"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="21"/>
+      <c r="E71" s="5"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="4"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="2"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="4"/>
+      <c r="O71" s="2"/>
+      <c r="Q71" s="3"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="4"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="21"/>
+      <c r="E72" s="5"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="4"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="2"/>
+      <c r="L72" s="4"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="4"/>
+      <c r="O72" s="2"/>
+      <c r="Q72" s="3"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="4"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="4"/>
+      <c r="J73" s="3"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="2"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="4"/>
+      <c r="O73" s="2"/>
+      <c r="Q73" s="3"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="4"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="2"/>
+      <c r="L74" s="4"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="4"/>
+      <c r="O74" s="2"/>
+      <c r="Q74" s="3"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="4"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="4"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="2"/>
+      <c r="L75" s="4"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="4"/>
+      <c r="O75" s="2"/>
+      <c r="Q75" s="3"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2401,17 +2467,18 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="4"/>
+      <c r="J76" s="3"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="2"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="4"/>
+      <c r="O76" s="2"/>
+      <c r="Q76" s="3"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="4"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2419,17 +2486,18 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="4"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="4"/>
+      <c r="O77" s="2"/>
+      <c r="Q77" s="3"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="4"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2437,17 +2505,18 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="4"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="2"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="4"/>
+      <c r="O78" s="2"/>
+      <c r="Q78" s="3"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="4"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2455,17 +2524,18 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="4"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="2"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="4"/>
+      <c r="O79" s="2"/>
+      <c r="Q79" s="3"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="4"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2473,17 +2543,18 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="4"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="2"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="4"/>
+      <c r="O80" s="2"/>
+      <c r="Q80" s="3"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2491,17 +2562,18 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="4"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="2"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="4"/>
+      <c r="O81" s="2"/>
+      <c r="Q81" s="3"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2509,17 +2581,18 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="4"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="2"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="4"/>
+      <c r="O82" s="2"/>
+      <c r="Q82" s="3"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="4"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2527,18 +2600,20 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="4"/>
+      <c r="J83" s="3"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="2"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="4"/>
+      <c r="O83" s="2"/>
+      <c r="Q83" s="3"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P72" xr:uid="{A8C9D5A0-926D-495F-8EC7-A52996829614}"/>
+  <autoFilter ref="B1:Q72" xr:uid="{A8C9D5A0-926D-495F-8EC7-A52996829614}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>